--- a/assets/template/mahasiswa_template.xlsx
+++ b/assets/template/mahasiswa_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C396BB64-265F-44FD-8C0D-00EB00E69C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA647CE-3944-4F5D-BA01-2DA425330F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="372" windowWidth="9972" windowHeight="11340" xr2:uid="{09404AB2-7656-425E-BE4E-4F6710C0076E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09404AB2-7656-425E-BE4E-4F6710C0076E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NRP</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>ipk</t>
+  </si>
+  <si>
+    <t>Cxxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A2AC59-2D00-4A97-B6DC-EDBC0D79037F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +441,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2">
+        <v>2.77</v>
+      </c>
+      <c r="E2">
+        <v>2.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
